--- a/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/bin/Debug/Excel/模板一厂——仓储——入职表.xlsx
+++ b/Monopy.PreceRateWage/Monopy.PreceRateWage.WinForm/bin/Debug/Excel/模板一厂——仓储——入职表.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>一工厂XXXX年XX月份YY车间入职补助表（月）</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>工种</t>
@@ -47,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -61,11 +64,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -77,6 +78,29 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -87,11 +111,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,121 +216,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,186 +245,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -436,15 +437,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -469,7 +461,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,7 +470,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +490,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -509,32 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,11 +540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,157 +574,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1082,18 +1071,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="14" max="14" width="57.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,10 +1091,11 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1114,7 +1104,7 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -1126,19 +1116,13 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
